--- a/Descargas/R15_Tribunal De Juicio Oral En Lo Penal De Colina_Terminos Por Rol_2020-Agosto.xlsx
+++ b/Descargas/R15_Tribunal De Juicio Oral En Lo Penal De Colina_Terminos Por Rol_2020-Agosto.xlsx
@@ -242,7 +242,7 @@
         </is>
       </c>
       <c r="C3" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
